--- a/resources/tools/wordlist_E-J/lessons/lesson-12.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-12.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1648 +436,1648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>leg; foot</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>歩く|あるく</t>
+          <t>足|あし</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to catch a cold</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>風邪をひく|かぜをひく</t>
+          <t>意味|いみ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to be interested (in...)</t>
+          <t>restroom</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>興味がある|きょうみがある</t>
+          <t>お手洗い|おてあらい</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to lose</t>
+          <t>stomach</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>なくす</t>
+          <t>おなか</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to have a fever</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>熱がある|ねつがある</t>
+          <t>風邪|かぜ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to become thirsty</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>のどが渇く|のどがかわく</t>
+          <t>彼女|かのじょ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to cough</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>せきが出る|せきがでる</t>
+          <t>彼|かれ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to break up; to separate</t>
+          <t>temperature (weather)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>別れる|わかれる</t>
+          <t>気温|きおん</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to get nervous</t>
+          <t>cloudy weather</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>緊張する|きんちょうする</t>
+          <t>曇り|くもり</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to worry</t>
+          <t>match; game</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>心配する|しんぱいする</t>
+          <t>試合|しあい</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cough</t>
+          <t>juice</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>せき</t>
+          <t>ジュース</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>throat</t>
+          <t>politics</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>のど</t>
+          <t>政治|せいじ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tooth</t>
+          <t>grade (on a test, etc.)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>歯|は</t>
+          <t>成績|せいせき</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>cough</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>花|はな</t>
+          <t>せき</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sunny weather</t>
+          <t>throat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>晴れ|はれ</t>
+          <t>のど</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>tooth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>服|ふく</t>
+          <t>歯|は</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hangover</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>二日酔い|ふつかよい</t>
+          <t>花|はな</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>sunny weather</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>プレゼント</t>
+          <t>晴れ|はれ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>homesickness</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ホームシック</t>
+          <t>服|ふく</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>minus</t>
+          <t>hangover</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>マイナス</t>
+          <t>二日酔い|ふつかよい</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>thing (concrete object)</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>物|もの</t>
+          <t>プレゼント</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>homesickness</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>雪|ゆき</t>
+          <t>ホームシック</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>business to take care of</t>
+          <t>minus</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>用事|ようじ</t>
+          <t>マイナス</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I have diarrhea</t>
+          <t>thing (concrete object)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>下痢です。|げりです。</t>
+          <t>物|もの</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I am constipated.</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>便秘です。|べんぴです。</t>
+          <t>雪|ゆき</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I have my period.</t>
+          <t>business to take care of</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>生理です。|せいりです。</t>
+          <t>用事|ようじ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I have hay fever.</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>花粉症です。|かふんしょうです。</t>
+          <t>甘い|あまい</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I have an allergy to...</t>
+          <t>hurt; painful</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>（～に）アレルギーがあります。</t>
+          <t>痛い|いたい</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I have a bad tooth.</t>
+          <t>there are many</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>虫歯があります。|むしばがあります。</t>
+          <t>多い|おおい</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I sneeze.</t>
+          <t>narrow; not spacious</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>くしゃみが出ます。|くしゃみがでます。</t>
+          <t>狭い|せまい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I have a runny nose.</t>
+          <t>inconvenient; to have a scheduling conflict</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>鼻水が出ます。|はなみずがでます。</t>
+          <t>都合が悪い|つごうがわるい</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>My back itches.</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>背中がかゆいです。|せなかがかゆいです。</t>
+          <t>悪い|わるい</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I have rashes.</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>発疹があります。|はっしんがあります。</t>
+          <t>素敵|すてき（な）</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I feel dizzy.</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>めまいがします。</t>
+          <t>歩く|あるく</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I threw up.</t>
+          <t>to catch a cold</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吐きました。|はきました。</t>
+          <t>風邪をひく|かぜをひく</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I am not feeling well.</t>
+          <t>to be interested (in...)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>気分が悪いです。|きぶんがわるいです。</t>
+          <t>興味がある|きょうみがある</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I burned myself.</t>
+          <t>to lose</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>やけどをしました。</t>
+          <t>なくす</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I broke my leg.</t>
+          <t>to have a fever</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>足の骨を折りました。|あしのほねをおりました。</t>
+          <t>熱がある|ねつがある</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I hurt myself.</t>
+          <t>to become thirsty</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>けがをしました。</t>
+          <t>のどが渇く|のどがかわく</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>leg; foot</t>
+          <t>to cough</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>足|あし</t>
+          <t>せきが出る|せきがでる</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>to break up; to separate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>意味|いみ</t>
+          <t>別れる|わかれる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>restroom</t>
+          <t>to get nervous</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>お手洗い|おてあらい</t>
+          <t>緊張する|きんちょうする</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>stomach</t>
+          <t>to worry</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>おなか</t>
+          <t>心配する|しんぱいする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>Get well soon.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>風邪|かぜ</t>
+          <t>お大事に|おだいじに</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>don't look well</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>彼女|かのじょ</t>
+          <t>元気がない|げんきがない</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>probably; maybe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>彼|かれ</t>
+          <t>多分|たぶん</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>temperature (weather)</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>気温|きおん</t>
+          <t>できるだけ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cloudy weather</t>
+          <t>probably; ..., right?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>曇り|くもり</t>
+          <t>～でしょう</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>match; game</t>
+          <t>degrees (temperature)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>試合|しあい</t>
+          <t>～度|～ど</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>juice</t>
+          <t>for two to three days</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ジュース</t>
+          <t>二三日|にさんにち</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>politics</t>
+          <t>because...</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>政治|せいじ</t>
+          <t>～ので</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>grade (on a test, etc.)</t>
+          <t>for the first time</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>成績|せいせき</t>
+          <t>初めて|はじめて</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sweet</t>
+          <t>very soon; in a few moments/days</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>甘い|あまい</t>
+          <t>もうすぐ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hurt; painful</t>
+          <t>I have diarrhea</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>痛い|いたい</t>
+          <t>下痢です。|げりです。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>there are many</t>
+          <t>I am constipated.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>多い|おおい</t>
+          <t>便秘です。|べんぴです。</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>narrow; not spacious</t>
+          <t>I have my period.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>狭い|せまい</t>
+          <t>生理です。|せいりです。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>inconvenient; to have a scheduling conflict</t>
+          <t>I have hay fever.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>都合が悪い|つごうがわるい</t>
+          <t>花粉症です。|かふんしょうです。</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>I have an allergy to...</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>悪い|わるい</t>
+          <t>（～に）アレルギーがあります。</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>I have a bad tooth.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>素敵|すてき（な）</t>
+          <t>虫歯があります。|むしばがあります。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>physician</t>
+          <t>I sneeze.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>内科|ないか</t>
+          <t>くしゃみが出ます。|くしゃみがでます。</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>dermatologist</t>
+          <t>I have a runny nose.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>皮膚科|ひふか</t>
+          <t>鼻水が出ます。|はなみずがでます。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>surgeon</t>
+          <t>My back itches.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>外科|げか</t>
+          <t>背中がかゆいです。|せなかがかゆいです。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>obstetrician and gynecologist</t>
+          <t>I have rashes.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>産婦人科|さんふじんか</t>
+          <t>発疹があります。|はっしんがあります。</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>orthopedic surgeon</t>
+          <t>I feel dizzy.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>整形外科|せいけいげか</t>
+          <t>めまいがします。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ophthalmologist</t>
+          <t>I threw up.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>眼科|がんか</t>
+          <t>吐きました。|はきました。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>I am not feeling well.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>歯科|しか</t>
+          <t>気分が悪いです。|きぶんがわるいです。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>otorhinolaryngologist; ENT doctor</t>
+          <t>I burned myself.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>耳鼻科|じびか</t>
+          <t>やけどをしました。</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>antibiotic</t>
+          <t>I broke my leg.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>抗生物質|こうせいぶっしつ</t>
+          <t>足の骨を折りました。|あしのほねをおりました。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>X-ray</t>
+          <t>I hurt myself.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>レントゲン</t>
+          <t>けがをしました。</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>physician</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>手術|しゅじゅつ</t>
+          <t>内科|ないか</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>injection</t>
+          <t>dermatologist</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>注射|ちゅうしゃ</t>
+          <t>皮膚科|ひふか</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>thermometer</t>
+          <t>surgeon</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>体温計|たいおんけい</t>
+          <t>外科|げか</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Get well soon.</t>
+          <t>obstetrician and gynecologist</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>お大事に|おだいじに</t>
+          <t>産婦人科|さんふじんか</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>don't look well</t>
+          <t>orthopedic surgeon</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>元気がない|げんきがない</t>
+          <t>整形外科|せいけいげか</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>probably; maybe</t>
+          <t>ophthalmologist</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>多分|たぶん</t>
+          <t>眼科|がんか</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>できるだけ</t>
+          <t>歯科|しか</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>probably; ..., right?</t>
+          <t>otorhinolaryngologist; ENT doctor</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>～でしょう</t>
+          <t>耳鼻科|じびか</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>degrees (temperature)</t>
+          <t>antibiotic</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>～度|～ど</t>
+          <t>抗生物質|こうせいぶっしつ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>for two to three days</t>
+          <t>X-ray</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>二三日|にさんにち</t>
+          <t>レントゲン</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>because...</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>～ので</t>
+          <t>手術|しゅじゅつ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>for the first time</t>
+          <t>injection</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>初めて|はじめて</t>
+          <t>注射|ちゅうしゃ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>very soon; in a few moments/days</t>
+          <t>thermometer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>もうすぐ</t>
+          <t>体温計|たいおんけい</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>to use</t>
+          <t>old times</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>使う|つかう</t>
+          <t>昔|むかし</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ambassador</t>
+          <t>old tale</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大使|たいし</t>
+          <t>昔話|むかしばなし</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>"Occupied"</t>
+          <t>ancient times</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>使用中|しようちゅう</t>
+          <t>大昔|おおむかし</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>errand</t>
+          <t>once upon a time</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>お使い|おつかい</t>
+          <t>昔々|むかしむかし</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>to work</t>
+          <t>people</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>働く|はたらく</t>
+          <t>人々|ひとびと</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>both husband and wife working</t>
+          <t>sometimes</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>共働き|ともばたらき</t>
+          <t>時々|ときどき</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>labor</t>
+          <t>various</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>労働|ろうどう</t>
+          <t>色々な|いろいろな</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>to bring (a person) back</t>
+          <t>God</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>連れて帰る|つれてかえる</t>
+          <t>神さま|かみさま</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>United Nations</t>
+          <t>shrine</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>国連|こくれん</t>
+          <t>神社|じんじゃ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>consecutive holidays</t>
+          <t>Shinto religion</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>連休|れんきゅう</t>
+          <t>神道|しんとう</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>red color</t>
+          <t>Kobe City</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>赤|あか</t>
+          <t>神戸市|こうべし</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>early</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>赤い|あかい</t>
+          <t>早い|はやい</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>to get up early</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>赤ちゃん|あかちゃん</t>
+          <t>早起きする|はやおきする</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>the equator</t>
+          <t>early morning</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>赤道|せきどう</t>
+          <t>早朝|そうちょう</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>the Red Cross</t>
+          <t>to get up</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>赤十字|せきじゅうじ</t>
+          <t>起きる|おきる</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>blue color</t>
+          <t>to wake someone up</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>青|あお</t>
+          <t>起こす|おこす</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>to stand up</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>青い|あおい</t>
+          <t>起立する|きりつする</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>青年|せいねん</t>
+          <t>牛|うし</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>blue sky</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>青空|あおぞら</t>
+          <t>牛乳|ぎゅうにゅう</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>green light</t>
+          <t>beef</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>青信号|あおしんごう</t>
+          <t>牛肉|ぎゅうにく</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>calf; veal</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>色|いろ</t>
+          <t>子牛|こうし</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>to use</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>色々な|いろいろな</t>
+          <t>使う|つかう</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>scenery</t>
+          <t>ambassador</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>景色|けしき</t>
+          <t>大使|たいし</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>"Occupied"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>特色|とくしょく</t>
+          <t>使用中|しようちゅう</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>old times</t>
+          <t>errand</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>昔|むかし</t>
+          <t>お使い|おつかい</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>old tale</t>
+          <t>to work</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>昔話|むかしばなし</t>
+          <t>働く|はたらく</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ancient times</t>
+          <t>both husband and wife working</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>大昔|おおむかし</t>
+          <t>共働き|ともばたらき</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>once upon a time</t>
+          <t>labor</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>昔々|むかしむかし</t>
+          <t>労働|ろうどう</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>to bring (a person) back</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>人々|ひとびと</t>
+          <t>連れて帰る|つれてかえる</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sometimes</t>
+          <t>United Nations</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>時々|ときどき</t>
+          <t>国連|こくれん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>consecutive holidays</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>色々な|いろいろな</t>
+          <t>連休|れんきゅう</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>God</t>
+          <t>to separate</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>神さま|かみさま</t>
+          <t>別れる|わかれる</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>shrine</t>
+          <t>not in particular</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>神社|じんじゃ</t>
+          <t>別に|べつに</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Shinto religion</t>
+          <t>special</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>神道|しんとう</t>
+          <t>特別な|とくべつな</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kobe City</t>
+          <t>discrimination</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>神戸市|こうべし</t>
+          <t>差別|さべつ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>to separate</t>
+          <t>separately</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>別れる|わかれる</t>
+          <t>別々に|べつべつに</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>not in particular</t>
+          <t>once</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>別に|べつに</t>
+          <t>一度|いちど</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>near future</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>特別な|とくべつな</t>
+          <t>今度|こんど</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>discrimination</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>差別|さべつ</t>
+          <t>温度|おんど</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>separately</t>
+          <t>30 degrees</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>別々に|べつべつに</t>
+          <t>三十度|さんじゅうど</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>once</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>一度|いちど</t>
+          <t>態度|たいど</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>near future</t>
+          <t>red color</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>今度|こんど</t>
+          <t>赤|あか</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>red</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>温度|おんど</t>
+          <t>赤い|あかい</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30 degrees</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>三十度|さんじゅうど</t>
+          <t>赤ちゃん|あかちゃん</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>the equator</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>態度|たいど</t>
+          <t>赤道|せきどう</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>the Red Cross</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>早い|はやい</t>
+          <t>赤十字|せきじゅうじ</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>to get up early</t>
+          <t>blue color</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>早起きする|はやおきする</t>
+          <t>青|あお</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>early morning</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>早朝|そうちょう</t>
+          <t>青い|あおい</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>to get up</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>起きる|おきる</t>
+          <t>青年|せいねん</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>to wake someone up</t>
+          <t>blue sky</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>起こす|おこす</t>
+          <t>青空|あおぞら</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>to stand up</t>
+          <t>green light</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>起立する|きりつする</t>
+          <t>青信号|あおしんごう</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>color</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>牛|うし</t>
+          <t>色|いろ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>various</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>牛乳|ぎゅうにゅう</t>
+          <t>色々な|いろいろな</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>beef</t>
+          <t>scenery</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>牛肉|ぎゅうにく</t>
+          <t>景色|けしき</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>calf; veal</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>子牛|こうし</t>
+          <t>特色|とくしょく</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-12.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-12.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2078,6 +2078,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-12.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-12.xlsx
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>眼科|がんか</t>
+          <t>眼科／目医者|がんか／めいしゃ</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>歯科|しか</t>
+          <t>歯科／歯医者|しか／はいしゃ</t>
         </is>
       </c>
     </row>
